--- a/data/pca/factorExposure/factorExposure_2010-04-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-30.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01332445288296203</v>
+        <v>-0.01704586381436519</v>
       </c>
       <c r="C2">
-        <v>0.002844004963927272</v>
+        <v>-0.00116725471488994</v>
       </c>
       <c r="D2">
-        <v>-0.01532684518049449</v>
+        <v>-0.008498577134787686</v>
       </c>
       <c r="E2">
-        <v>-0.02038908780968854</v>
+        <v>-0.0006765383294240804</v>
       </c>
       <c r="F2">
-        <v>-0.01671150160280356</v>
+        <v>-0.01142169560567035</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1177491642696172</v>
+        <v>-0.09306005283984865</v>
       </c>
       <c r="C4">
-        <v>0.08416703157400229</v>
+        <v>-0.01695479950953069</v>
       </c>
       <c r="D4">
-        <v>0.02101008779223871</v>
+        <v>-0.08338717927377624</v>
       </c>
       <c r="E4">
-        <v>-0.01697767168125294</v>
+        <v>0.02988569706572702</v>
       </c>
       <c r="F4">
-        <v>-0.03476467929642767</v>
+        <v>0.0324118476312311</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1268139626916868</v>
+        <v>-0.1530956347519902</v>
       </c>
       <c r="C6">
-        <v>0.02985470290016196</v>
+        <v>-0.0248228754404868</v>
       </c>
       <c r="D6">
-        <v>-0.02385239055350803</v>
+        <v>0.02217315482621585</v>
       </c>
       <c r="E6">
-        <v>0.04525628661109966</v>
+        <v>0.009305486409609794</v>
       </c>
       <c r="F6">
-        <v>0.01274504168211233</v>
+        <v>0.04101104452955767</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07624260511537152</v>
+        <v>-0.0601690578267601</v>
       </c>
       <c r="C7">
-        <v>0.07977357687228909</v>
+        <v>0.0003271355173253753</v>
       </c>
       <c r="D7">
-        <v>-0.007553989697858561</v>
+        <v>-0.05121337670876964</v>
       </c>
       <c r="E7">
-        <v>-0.03856905597607198</v>
+        <v>0.01487895026267995</v>
       </c>
       <c r="F7">
-        <v>-0.009907917718803333</v>
+        <v>0.05493446717244783</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04927223807740296</v>
+        <v>-0.05873593140376757</v>
       </c>
       <c r="C8">
-        <v>0.0444880101983499</v>
+        <v>0.0127505939196824</v>
       </c>
       <c r="D8">
-        <v>-0.0009081219444030964</v>
+        <v>-0.02966137383793184</v>
       </c>
       <c r="E8">
-        <v>0.03062432610984549</v>
+        <v>0.01441367045324165</v>
       </c>
       <c r="F8">
-        <v>-0.003988588230071154</v>
+        <v>-0.02963701038706248</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08306499415018444</v>
+        <v>-0.07119486247848932</v>
       </c>
       <c r="C9">
-        <v>0.06664179947250477</v>
+        <v>-0.01308442634547523</v>
       </c>
       <c r="D9">
-        <v>0.02360755407121565</v>
+        <v>-0.08354506269517013</v>
       </c>
       <c r="E9">
-        <v>-0.01005762310252325</v>
+        <v>0.02533357247902111</v>
       </c>
       <c r="F9">
-        <v>-0.03142330259674211</v>
+        <v>0.05425051792630932</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1252282811181203</v>
+        <v>-0.09397006056896334</v>
       </c>
       <c r="C10">
-        <v>-0.1592888433271216</v>
+        <v>-0.01676003747074034</v>
       </c>
       <c r="D10">
-        <v>-0.01638291884784736</v>
+        <v>0.1715832733073077</v>
       </c>
       <c r="E10">
-        <v>-0.03507501223211233</v>
+        <v>-0.03797615322349249</v>
       </c>
       <c r="F10">
-        <v>-0.001235088097458082</v>
+        <v>-0.05252254185405727</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07875186105081088</v>
+        <v>-0.08780163837816096</v>
       </c>
       <c r="C11">
-        <v>0.07309122953612804</v>
+        <v>-0.01247203041063187</v>
       </c>
       <c r="D11">
-        <v>0.0325276036833423</v>
+        <v>-0.1143049043171779</v>
       </c>
       <c r="E11">
-        <v>0.004476836778588181</v>
+        <v>0.04826084257309799</v>
       </c>
       <c r="F11">
-        <v>-0.03375694191603422</v>
+        <v>0.02194627098569122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07132548381330929</v>
+        <v>-0.09305118535396784</v>
       </c>
       <c r="C12">
-        <v>0.07337398769003926</v>
+        <v>-0.01032989646247408</v>
       </c>
       <c r="D12">
-        <v>0.0513395885292668</v>
+        <v>-0.1212995106904771</v>
       </c>
       <c r="E12">
-        <v>-0.01446920884956788</v>
+        <v>0.04756513417045186</v>
       </c>
       <c r="F12">
-        <v>0.006892550656518661</v>
+        <v>0.02422956764241074</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03300160193630183</v>
+        <v>-0.04288332097821149</v>
       </c>
       <c r="C13">
-        <v>0.03310564401345847</v>
+        <v>-0.003926979677770488</v>
       </c>
       <c r="D13">
-        <v>-0.008839230357010456</v>
+        <v>-0.04790715236010922</v>
       </c>
       <c r="E13">
-        <v>-0.01730950008463679</v>
+        <v>-0.01144300823353682</v>
       </c>
       <c r="F13">
-        <v>0.009078826664375414</v>
+        <v>0.0145104126472938</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03851251907531462</v>
+        <v>-0.02214515540295253</v>
       </c>
       <c r="C14">
-        <v>0.03485335829327556</v>
+        <v>-0.01464938754553678</v>
       </c>
       <c r="D14">
-        <v>0.02366198618681208</v>
+        <v>-0.03307676028548896</v>
       </c>
       <c r="E14">
-        <v>0.002254570822332108</v>
+        <v>0.01946446432029721</v>
       </c>
       <c r="F14">
-        <v>0.01008183129371864</v>
+        <v>0.01887617780555647</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01578786458575877</v>
+        <v>-0.03191636685928542</v>
       </c>
       <c r="C15">
-        <v>0.01886204249625625</v>
+        <v>-0.005504400684375157</v>
       </c>
       <c r="D15">
-        <v>-0.06208653935346421</v>
+        <v>-0.04555583872494509</v>
       </c>
       <c r="E15">
-        <v>-0.01490363624898427</v>
+        <v>0.009185696809737999</v>
       </c>
       <c r="F15">
-        <v>-0.01249517719559023</v>
+        <v>0.03184938438184597</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08309437272552785</v>
+        <v>-0.07422324543011678</v>
       </c>
       <c r="C16">
-        <v>0.07109403134532308</v>
+        <v>-0.003968563919536722</v>
       </c>
       <c r="D16">
-        <v>0.04520068814001531</v>
+        <v>-0.116164560619458</v>
       </c>
       <c r="E16">
-        <v>0.02400405577636693</v>
+        <v>0.06263829636514284</v>
       </c>
       <c r="F16">
-        <v>-0.01620311073796316</v>
+        <v>0.03265922982878131</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0216367076820776</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003741052033798325</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02132552971688714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01068008311573864</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02412975936373295</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04550650414289824</v>
+        <v>-0.06146581502372206</v>
       </c>
       <c r="C20">
-        <v>0.04843894378893981</v>
+        <v>-0.001872221007587109</v>
       </c>
       <c r="D20">
-        <v>-0.02052758244889519</v>
+        <v>-0.07431521515819271</v>
       </c>
       <c r="E20">
-        <v>-0.03208600973713948</v>
+        <v>0.05559769935562602</v>
       </c>
       <c r="F20">
-        <v>0.01719373486840676</v>
+        <v>0.02970832803961962</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02414375145704392</v>
+        <v>-0.0385904736945156</v>
       </c>
       <c r="C21">
-        <v>0.009859542159763231</v>
+        <v>-0.007689211769900583</v>
       </c>
       <c r="D21">
-        <v>0.02435941742741438</v>
+        <v>-0.03535201986247657</v>
       </c>
       <c r="E21">
-        <v>0.001504573750606069</v>
+        <v>-0.008624689065108038</v>
       </c>
       <c r="F21">
-        <v>-0.01224859031448854</v>
+        <v>-0.02016834451239244</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04911881917511267</v>
+        <v>-0.04171942111442206</v>
       </c>
       <c r="C22">
-        <v>0.001190277758046327</v>
+        <v>-5.753411957715381e-05</v>
       </c>
       <c r="D22">
-        <v>-0.6240982249729817</v>
+        <v>-0.002904574515583371</v>
       </c>
       <c r="E22">
-        <v>-0.1225915885790439</v>
+        <v>0.02931623370032935</v>
       </c>
       <c r="F22">
-        <v>0.1426931666275226</v>
+        <v>-0.01036129882244571</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04973839471917353</v>
+        <v>-0.04178101753885431</v>
       </c>
       <c r="C23">
-        <v>0.002295227483390332</v>
+        <v>-8.240547463984119e-05</v>
       </c>
       <c r="D23">
-        <v>-0.6265125176072802</v>
+        <v>-0.003025355659035691</v>
       </c>
       <c r="E23">
-        <v>-0.1219131994352243</v>
+        <v>0.02966621686717729</v>
       </c>
       <c r="F23">
-        <v>0.1427561831783291</v>
+        <v>-0.009903845870152476</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08262386642214108</v>
+        <v>-0.0806880127063101</v>
       </c>
       <c r="C24">
-        <v>0.07177656319645832</v>
+        <v>-0.004320554107764666</v>
       </c>
       <c r="D24">
-        <v>0.04181867178957095</v>
+        <v>-0.1172445883558056</v>
       </c>
       <c r="E24">
-        <v>0.002512425183964627</v>
+        <v>0.05049319730130868</v>
       </c>
       <c r="F24">
-        <v>-0.03751035152983006</v>
+        <v>0.02499714632798555</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08606284981532007</v>
+        <v>-0.08523376857012306</v>
       </c>
       <c r="C25">
-        <v>0.07167190074013646</v>
+        <v>-0.006319695487540924</v>
       </c>
       <c r="D25">
-        <v>0.05571084632848806</v>
+        <v>-0.1056006355160699</v>
       </c>
       <c r="E25">
-        <v>-0.009773333794506475</v>
+        <v>0.03364397251641317</v>
       </c>
       <c r="F25">
-        <v>-0.01036569609632601</v>
+        <v>0.03234042516719193</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03926157373317679</v>
+        <v>-0.05548678205177549</v>
       </c>
       <c r="C26">
-        <v>-0.0050409578477197</v>
+        <v>-0.01526163758345181</v>
       </c>
       <c r="D26">
-        <v>-0.01518961438790077</v>
+        <v>-0.0358056124903378</v>
       </c>
       <c r="E26">
-        <v>0.0213622803195204</v>
+        <v>0.0279255233504274</v>
       </c>
       <c r="F26">
-        <v>0.02810913705203478</v>
+        <v>-0.007580566370443317</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1434858426108452</v>
+        <v>-0.1416971944713837</v>
       </c>
       <c r="C28">
-        <v>-0.285314106752965</v>
+        <v>-0.01466839541893297</v>
       </c>
       <c r="D28">
-        <v>0.01159462795575477</v>
+        <v>0.2673964669592954</v>
       </c>
       <c r="E28">
-        <v>0.06646254464021997</v>
+        <v>-0.06794544024925478</v>
       </c>
       <c r="F28">
-        <v>0.03286519031638407</v>
+        <v>0.03127975163369572</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03561094344246321</v>
+        <v>-0.02712318559876571</v>
       </c>
       <c r="C29">
-        <v>0.03025457385423927</v>
+        <v>-0.008856411990640592</v>
       </c>
       <c r="D29">
-        <v>0.02097000844158704</v>
+        <v>-0.03166398145970781</v>
       </c>
       <c r="E29">
-        <v>-0.03195052952996531</v>
+        <v>0.01228768302793613</v>
       </c>
       <c r="F29">
-        <v>0.02180130694444736</v>
+        <v>-0.01176234712957428</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09667924288369358</v>
+        <v>-0.06364536317443202</v>
       </c>
       <c r="C30">
-        <v>0.1012363625554763</v>
+        <v>-0.005820749472615476</v>
       </c>
       <c r="D30">
-        <v>0.057046594711873</v>
+        <v>-0.08292205137267537</v>
       </c>
       <c r="E30">
-        <v>0.06224879364712874</v>
+        <v>0.02478792289818288</v>
       </c>
       <c r="F30">
-        <v>0.09508782747544961</v>
+        <v>0.108030402465775</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03083878919977113</v>
+        <v>-0.04849329694196543</v>
       </c>
       <c r="C31">
-        <v>0.04486050250863277</v>
+        <v>-0.0151374289192855</v>
       </c>
       <c r="D31">
-        <v>0.002210572801591161</v>
+        <v>-0.0279294778899408</v>
       </c>
       <c r="E31">
-        <v>-0.01879783637319562</v>
+        <v>0.02725868313978045</v>
       </c>
       <c r="F31">
-        <v>-0.009750361862744307</v>
+        <v>-0.003881048778648943</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05214556975191963</v>
+        <v>-0.04826178455749525</v>
       </c>
       <c r="C32">
-        <v>0.02516530327528616</v>
+        <v>-0.0004332994555367105</v>
       </c>
       <c r="D32">
-        <v>0.04068259178181818</v>
+        <v>-0.03068295249475049</v>
       </c>
       <c r="E32">
-        <v>0.05733052358052829</v>
+        <v>0.02937544266720946</v>
       </c>
       <c r="F32">
-        <v>-0.05060499438964745</v>
+        <v>0.001945976831656799</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09253993014590689</v>
+        <v>-0.09037145602743978</v>
       </c>
       <c r="C33">
-        <v>0.06863631446854079</v>
+        <v>-0.009524857141656124</v>
       </c>
       <c r="D33">
-        <v>0.02386159346593798</v>
+        <v>-0.09382573481708621</v>
       </c>
       <c r="E33">
-        <v>-0.004647679242286334</v>
+        <v>0.04670346935684656</v>
       </c>
       <c r="F33">
-        <v>-0.01061933684204514</v>
+        <v>0.042069547849709</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06940775116630415</v>
+        <v>-0.0684785922522311</v>
       </c>
       <c r="C34">
-        <v>0.05459421708971919</v>
+        <v>-0.01249387423163702</v>
       </c>
       <c r="D34">
-        <v>0.04327622920912157</v>
+        <v>-0.09793033654093339</v>
       </c>
       <c r="E34">
-        <v>0.004950780479470358</v>
+        <v>0.03538946598096947</v>
       </c>
       <c r="F34">
-        <v>-0.01558569429531598</v>
+        <v>0.04495713793112475</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01328035957269859</v>
+        <v>-0.02446455659059628</v>
       </c>
       <c r="C35">
-        <v>0.02074765451399891</v>
+        <v>-0.002554161946687683</v>
       </c>
       <c r="D35">
-        <v>0.007276740278816473</v>
+        <v>-0.0117362897737044</v>
       </c>
       <c r="E35">
-        <v>-0.01545713511158723</v>
+        <v>0.01171127194890133</v>
       </c>
       <c r="F35">
-        <v>0.01970658953279049</v>
+        <v>0.0101317836600207</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02383095864211116</v>
+        <v>-0.0240153149709578</v>
       </c>
       <c r="C36">
-        <v>0.02050895493605732</v>
+        <v>-0.007466072076215094</v>
       </c>
       <c r="D36">
-        <v>-0.001871851230639381</v>
+        <v>-0.03840270322664314</v>
       </c>
       <c r="E36">
-        <v>0.002875121799666297</v>
+        <v>0.01738151437636284</v>
       </c>
       <c r="F36">
-        <v>0.007539830854374636</v>
+        <v>0.01050165596956611</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01040708217925319</v>
+        <v>-0.001730977453210492</v>
       </c>
       <c r="C38">
-        <v>0.01849172776627551</v>
+        <v>-0.0002925967903218436</v>
       </c>
       <c r="D38">
-        <v>-0.02336964833150054</v>
+        <v>-0.001698756722447677</v>
       </c>
       <c r="E38">
-        <v>-0.03264575888730499</v>
+        <v>0.00190145728774094</v>
       </c>
       <c r="F38">
-        <v>0.06829021283288825</v>
+        <v>-0.0005579054113978732</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1164289002268113</v>
+        <v>-0.1095236812304969</v>
       </c>
       <c r="C39">
-        <v>0.1151098251733113</v>
+        <v>-0.01793521318758383</v>
       </c>
       <c r="D39">
-        <v>0.1601844867823188</v>
+        <v>-0.1521856273746426</v>
       </c>
       <c r="E39">
-        <v>0.01427721040443938</v>
+        <v>0.06029562269466402</v>
       </c>
       <c r="F39">
-        <v>0.08038589167249265</v>
+        <v>0.03341312079139448</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0206755915914735</v>
+        <v>-0.03702786303334208</v>
       </c>
       <c r="C40">
-        <v>0.0644734711943466</v>
+        <v>-0.007332105059424468</v>
       </c>
       <c r="D40">
-        <v>-0.02969910996256234</v>
+        <v>-0.03211868758932553</v>
       </c>
       <c r="E40">
-        <v>-0.05539012940078365</v>
+        <v>0.004396158581534546</v>
       </c>
       <c r="F40">
-        <v>-0.05592199967883949</v>
+        <v>-0.01506100123659754</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02910548974327344</v>
+        <v>-0.02616429760979684</v>
       </c>
       <c r="C41">
-        <v>0.01606421807810866</v>
+        <v>-0.006812984278804638</v>
       </c>
       <c r="D41">
-        <v>0.01565612844760891</v>
+        <v>-0.01078603758357364</v>
       </c>
       <c r="E41">
-        <v>-0.009876202904660809</v>
+        <v>0.01206998237152407</v>
       </c>
       <c r="F41">
-        <v>0.02467845631965532</v>
+        <v>-0.009700489136393875</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03814385256179992</v>
+        <v>-0.04111363165585482</v>
       </c>
       <c r="C43">
-        <v>0.01671020049145203</v>
+        <v>-0.006830986902660398</v>
       </c>
       <c r="D43">
-        <v>-0.00692707761354593</v>
+        <v>-0.02014648914959985</v>
       </c>
       <c r="E43">
-        <v>0.000742885308483927</v>
+        <v>0.024876506975262</v>
       </c>
       <c r="F43">
-        <v>0.06210136668047915</v>
+        <v>-0.01088873262592705</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1343493453216231</v>
+        <v>-0.07194068181127083</v>
       </c>
       <c r="C44">
-        <v>0.1556966215644384</v>
+        <v>-0.02205162631205382</v>
       </c>
       <c r="D44">
-        <v>-0.07672469915738232</v>
+        <v>-0.1006130638707705</v>
       </c>
       <c r="E44">
-        <v>-0.09854922381764267</v>
+        <v>0.0674908241077984</v>
       </c>
       <c r="F44">
-        <v>-0.02503344878857511</v>
+        <v>0.1685934576943381</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03013544672959979</v>
+        <v>-0.0219286190834221</v>
       </c>
       <c r="C46">
-        <v>0.00466693670688572</v>
+        <v>-0.004184665243233106</v>
       </c>
       <c r="D46">
-        <v>-0.01801908940921314</v>
+        <v>-0.01128264021085717</v>
       </c>
       <c r="E46">
-        <v>-0.0328603301534587</v>
+        <v>0.02323840508765648</v>
       </c>
       <c r="F46">
-        <v>0.04431668964120898</v>
+        <v>0.0005086095123726491</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03852187598895651</v>
+        <v>-0.0519196402657946</v>
       </c>
       <c r="C47">
-        <v>0.03194549579051175</v>
+        <v>-0.003355964422438673</v>
       </c>
       <c r="D47">
-        <v>0.00311798110395963</v>
+        <v>-0.01244085634405442</v>
       </c>
       <c r="E47">
-        <v>-0.01348325937925568</v>
+        <v>0.02215587001442755</v>
       </c>
       <c r="F47">
-        <v>0.002713003821989662</v>
+        <v>-0.04460160022428</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04301564873347413</v>
+        <v>-0.04770180355075163</v>
       </c>
       <c r="C48">
-        <v>0.02036325774820332</v>
+        <v>-0.003273895130650548</v>
       </c>
       <c r="D48">
-        <v>0.005089015588030914</v>
+        <v>-0.04806822296311009</v>
       </c>
       <c r="E48">
-        <v>-0.01993392454614603</v>
+        <v>-0.003911529390912515</v>
       </c>
       <c r="F48">
-        <v>-0.03589412118571653</v>
+        <v>0.01126599166216281</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.214087617935812</v>
+        <v>-0.2033396702742319</v>
       </c>
       <c r="C49">
-        <v>-0.02785475121749025</v>
+        <v>-0.01739048170462728</v>
       </c>
       <c r="D49">
-        <v>0.01064990029427688</v>
+        <v>0.01109200552028132</v>
       </c>
       <c r="E49">
-        <v>-0.07422532020679544</v>
+        <v>0.03378403990573284</v>
       </c>
       <c r="F49">
-        <v>-0.1265644321461719</v>
+        <v>0.03752785353730004</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03856022512235387</v>
+        <v>-0.04841993273755843</v>
       </c>
       <c r="C50">
-        <v>0.02978611125588861</v>
+        <v>-0.01125445565294145</v>
       </c>
       <c r="D50">
-        <v>0.02135882008818673</v>
+        <v>-0.02641130016366234</v>
       </c>
       <c r="E50">
-        <v>-0.00702977632551045</v>
+        <v>0.02892717684069275</v>
       </c>
       <c r="F50">
-        <v>0.004724875976142098</v>
+        <v>0.008922966226727745</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01638234683001536</v>
+        <v>-0.002476955963953295</v>
       </c>
       <c r="C51">
-        <v>-0.0219605105711866</v>
+        <v>-0.0006412549706763454</v>
       </c>
       <c r="D51">
-        <v>-0.004673081172912033</v>
+        <v>0.002996611920598096</v>
       </c>
       <c r="E51">
-        <v>-0.008576546542147847</v>
+        <v>-0.0004775834074927091</v>
       </c>
       <c r="F51">
-        <v>-0.003494664105794877</v>
+        <v>0.005776559759693452</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.09215743194615399</v>
+        <v>-0.1448833865476901</v>
       </c>
       <c r="C52">
-        <v>0.0878614548749415</v>
+        <v>-0.01352683670736494</v>
       </c>
       <c r="D52">
-        <v>0.02217899767259162</v>
+        <v>-0.05131883557769377</v>
       </c>
       <c r="E52">
-        <v>-0.02181397794518011</v>
+        <v>0.02274792105312619</v>
       </c>
       <c r="F52">
-        <v>0.0700815698709389</v>
+        <v>0.03443030204203475</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1591956385294169</v>
+        <v>-0.1739606163070722</v>
       </c>
       <c r="C53">
-        <v>0.04539026218865733</v>
+        <v>-0.01640675623239965</v>
       </c>
       <c r="D53">
-        <v>-0.008905557431569627</v>
+        <v>-0.01184568456453967</v>
       </c>
       <c r="E53">
-        <v>-0.04571152668227103</v>
+        <v>0.0355421574750024</v>
       </c>
       <c r="F53">
-        <v>0.09578543109916228</v>
+        <v>0.06349361896230654</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05694332095974183</v>
+        <v>-0.0218389148375297</v>
       </c>
       <c r="C54">
-        <v>0.06243865799454275</v>
+        <v>-0.01242682704578632</v>
       </c>
       <c r="D54">
-        <v>-0.00778939503226578</v>
+        <v>-0.03443921461372931</v>
       </c>
       <c r="E54">
-        <v>-0.0183849212404531</v>
+        <v>0.01551686442877068</v>
       </c>
       <c r="F54">
-        <v>-0.01168011762268864</v>
+        <v>-0.004069957674916218</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08848641898281155</v>
+        <v>-0.1144456860466671</v>
       </c>
       <c r="C55">
-        <v>0.04454339438697081</v>
+        <v>-0.01504304014954406</v>
       </c>
       <c r="D55">
-        <v>0.02977085077015752</v>
+        <v>-0.01125661272632388</v>
       </c>
       <c r="E55">
-        <v>-0.01770045410272183</v>
+        <v>0.03043458604562038</v>
       </c>
       <c r="F55">
-        <v>0.04586191872714432</v>
+        <v>0.04610712476973176</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1540125819330348</v>
+        <v>-0.1776542086559083</v>
       </c>
       <c r="C56">
-        <v>0.07402640797213253</v>
+        <v>-0.01378638588607428</v>
       </c>
       <c r="D56">
-        <v>0.02760968897078822</v>
+        <v>-0.007311732857065038</v>
       </c>
       <c r="E56">
-        <v>-0.07899040664016045</v>
+        <v>0.04021734352066834</v>
       </c>
       <c r="F56">
-        <v>0.05721199169743806</v>
+        <v>0.03933737395573865</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05924327876852672</v>
+        <v>-0.0460891493589498</v>
       </c>
       <c r="C58">
-        <v>0.04138549381667896</v>
+        <v>-0.002369179902524043</v>
       </c>
       <c r="D58">
-        <v>-0.04815955376109712</v>
+        <v>-0.06526395070543001</v>
       </c>
       <c r="E58">
-        <v>-0.03248499210684464</v>
+        <v>0.02251984090682246</v>
       </c>
       <c r="F58">
-        <v>0.06374968693007453</v>
+        <v>-0.04584745560441902</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.201792844377805</v>
+        <v>-0.1713343638823025</v>
       </c>
       <c r="C59">
-        <v>-0.2402703319091111</v>
+        <v>-0.01607555851840736</v>
       </c>
       <c r="D59">
-        <v>0.04316606814685926</v>
+        <v>0.2260028859670783</v>
       </c>
       <c r="E59">
-        <v>0.02605613063289044</v>
+        <v>-0.04910431073805479</v>
       </c>
       <c r="F59">
-        <v>-0.06438299641430882</v>
+        <v>-0.0317063289704309</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2345789468172773</v>
+        <v>-0.2371418409559918</v>
       </c>
       <c r="C60">
-        <v>0.08523657467764013</v>
+        <v>0.004057066242757567</v>
       </c>
       <c r="D60">
-        <v>0.05637029632059693</v>
+        <v>-0.04711482237807483</v>
       </c>
       <c r="E60">
-        <v>-0.1078526341599595</v>
+        <v>0.00691126604108237</v>
       </c>
       <c r="F60">
-        <v>-0.0532269422992192</v>
+        <v>-0.03013702920584786</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1089383483311613</v>
+        <v>-0.08418545309982799</v>
       </c>
       <c r="C61">
-        <v>0.07359353672775834</v>
+        <v>-0.01404454426285706</v>
       </c>
       <c r="D61">
-        <v>0.1123152780916164</v>
+        <v>-0.1122230181800388</v>
       </c>
       <c r="E61">
-        <v>-0.01873145975137393</v>
+        <v>0.04156037709118205</v>
       </c>
       <c r="F61">
-        <v>0.04501712823382209</v>
+        <v>0.01888964218060515</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1525363026961035</v>
+        <v>-0.1704847464946238</v>
       </c>
       <c r="C62">
-        <v>0.05412448595205682</v>
+        <v>-0.01775994852631484</v>
       </c>
       <c r="D62">
-        <v>-0.004013076549982602</v>
+        <v>-0.01099059747747582</v>
       </c>
       <c r="E62">
-        <v>-0.05874408312551892</v>
+        <v>0.03785419874849624</v>
       </c>
       <c r="F62">
-        <v>0.04768571436560116</v>
+        <v>0.02123127815061394</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04150294669528316</v>
+        <v>-0.04296121643777507</v>
       </c>
       <c r="C63">
-        <v>0.02086777949164213</v>
+        <v>-0.003573303835808006</v>
       </c>
       <c r="D63">
-        <v>0.0006119844970673095</v>
+        <v>-0.0508435709520954</v>
       </c>
       <c r="E63">
-        <v>0.02967922682607324</v>
+        <v>0.02250138480958457</v>
       </c>
       <c r="F63">
-        <v>-0.01177943058747252</v>
+        <v>0.008073186274595558</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09316713676250732</v>
+        <v>-0.1121741710710571</v>
       </c>
       <c r="C64">
-        <v>0.05106709981360021</v>
+        <v>-0.01198128040312155</v>
       </c>
       <c r="D64">
-        <v>0.01368308846677702</v>
+        <v>-0.04243671904952249</v>
       </c>
       <c r="E64">
-        <v>-0.06326278950252744</v>
+        <v>0.02140856950081154</v>
       </c>
       <c r="F64">
-        <v>0.04155138510046643</v>
+        <v>0.02325942707033046</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1138442361747683</v>
+        <v>-0.1443967652250151</v>
       </c>
       <c r="C65">
-        <v>0.01662299902254367</v>
+        <v>-0.03116999659881802</v>
       </c>
       <c r="D65">
-        <v>0.006471312640201479</v>
+        <v>0.04312101988138342</v>
       </c>
       <c r="E65">
-        <v>0.06017468901659839</v>
+        <v>0.0003551529862800873</v>
       </c>
       <c r="F65">
-        <v>0.04169546735311269</v>
+        <v>0.04228407832419489</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1326817696600729</v>
+        <v>-0.1310859402412636</v>
       </c>
       <c r="C66">
-        <v>0.1339591693738525</v>
+        <v>-0.01560540541971509</v>
       </c>
       <c r="D66">
-        <v>0.1403687143575363</v>
+        <v>-0.1395414925658869</v>
       </c>
       <c r="E66">
-        <v>-0.008279223965816186</v>
+        <v>0.06684027248456224</v>
       </c>
       <c r="F66">
-        <v>0.07863911212252606</v>
+        <v>0.03840464019931286</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05717403601292038</v>
+        <v>-0.06256130378676313</v>
       </c>
       <c r="C67">
-        <v>0.03077538762836897</v>
+        <v>-0.003542814777611112</v>
       </c>
       <c r="D67">
-        <v>-0.02711016040054545</v>
+        <v>-0.05364422217800119</v>
       </c>
       <c r="E67">
-        <v>-0.01654247353431558</v>
+        <v>0.01944256401180215</v>
       </c>
       <c r="F67">
-        <v>0.08024448123387376</v>
+        <v>-0.03872816254097342</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1197538733564765</v>
+        <v>-0.1154889281253223</v>
       </c>
       <c r="C68">
-        <v>-0.2488609987892184</v>
+        <v>-0.02556032634147709</v>
       </c>
       <c r="D68">
-        <v>0.01957116823382531</v>
+        <v>0.264769831818659</v>
       </c>
       <c r="E68">
-        <v>0.07197492910096842</v>
+        <v>-0.08613094804953776</v>
       </c>
       <c r="F68">
-        <v>0.01161404716627645</v>
+        <v>0.03635077496400745</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03627888455651194</v>
+        <v>-0.03927027967948301</v>
       </c>
       <c r="C69">
-        <v>-0.01494617651068931</v>
+        <v>-0.001080372742528246</v>
       </c>
       <c r="D69">
-        <v>-0.004387563817268359</v>
+        <v>-0.009068106590034005</v>
       </c>
       <c r="E69">
-        <v>-0.006579872323289266</v>
+        <v>0.02425195884349485</v>
       </c>
       <c r="F69">
-        <v>0.06032162174299001</v>
+        <v>-0.01294141826660492</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03514091275884643</v>
+        <v>-0.06371446276304386</v>
       </c>
       <c r="C70">
-        <v>0.00863631563646659</v>
+        <v>0.02766722912304245</v>
       </c>
       <c r="D70">
-        <v>0.04012481259729275</v>
+        <v>-0.02628043726099836</v>
       </c>
       <c r="E70">
-        <v>-0.01538669344826418</v>
+        <v>-0.04822462869248159</v>
       </c>
       <c r="F70">
-        <v>0.07775327958846905</v>
+        <v>-0.2804651577538684</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1383945536040735</v>
+        <v>-0.1343476458645451</v>
       </c>
       <c r="C71">
-        <v>-0.2680442121464464</v>
+        <v>-0.02984833638113768</v>
       </c>
       <c r="D71">
-        <v>0.01284117401090761</v>
+        <v>0.2801610356414118</v>
       </c>
       <c r="E71">
-        <v>0.03471023804582371</v>
+        <v>-0.0946755083491633</v>
       </c>
       <c r="F71">
-        <v>0.05490909388082989</v>
+        <v>0.04108581325325829</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1440850110585243</v>
+        <v>-0.1398092382536094</v>
       </c>
       <c r="C72">
-        <v>0.01909907177414739</v>
+        <v>-0.02457178125305838</v>
       </c>
       <c r="D72">
-        <v>-0.006806243033513064</v>
+        <v>-0.005082268500304848</v>
       </c>
       <c r="E72">
-        <v>-0.007637470629001989</v>
+        <v>0.04518646734097653</v>
       </c>
       <c r="F72">
-        <v>0.03184013953636817</v>
+        <v>0.02136890754306852</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2156227572323317</v>
+        <v>-0.2043857081962522</v>
       </c>
       <c r="C73">
-        <v>0.02193988361252516</v>
+        <v>-0.01145863913805668</v>
       </c>
       <c r="D73">
-        <v>0.09888311286864242</v>
+        <v>-0.01594074022021122</v>
       </c>
       <c r="E73">
-        <v>-0.1439974983650276</v>
+        <v>0.06185526205407543</v>
       </c>
       <c r="F73">
-        <v>0.01500169713987531</v>
+        <v>0.03839804687107071</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.120887119833187</v>
+        <v>-0.09397746376654646</v>
       </c>
       <c r="C74">
-        <v>0.08715646936938133</v>
+        <v>-0.01212891095340595</v>
       </c>
       <c r="D74">
-        <v>0.002312467864687692</v>
+        <v>-0.02224143894089915</v>
       </c>
       <c r="E74">
-        <v>-0.02568845683399656</v>
+        <v>0.04864515830794449</v>
       </c>
       <c r="F74">
-        <v>0.1035549539892517</v>
+        <v>0.0428733587368066</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1092567890908422</v>
+        <v>-0.1299718485908445</v>
       </c>
       <c r="C75">
-        <v>0.06299921301419061</v>
+        <v>-0.02639061781450198</v>
       </c>
       <c r="D75">
-        <v>-0.0004169723102778453</v>
+        <v>-0.03366323571299621</v>
       </c>
       <c r="E75">
-        <v>-0.01993668796438178</v>
+        <v>0.06023877465283757</v>
       </c>
       <c r="F75">
-        <v>0.005106643483069651</v>
+        <v>0.01420041484544965</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.02809178294953396</v>
+        <v>-0.004252488510553178</v>
       </c>
       <c r="C76">
-        <v>-0.008832144352210945</v>
+        <v>-0.001007470645583751</v>
       </c>
       <c r="D76">
-        <v>0.01243080162548581</v>
+        <v>0.00198053680957624</v>
       </c>
       <c r="E76">
-        <v>-0.0236804553404195</v>
+        <v>0.00158167287970111</v>
       </c>
       <c r="F76">
-        <v>0.0129589076146867</v>
+        <v>0.004130192004249403</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0654842115840935</v>
+        <v>-0.07893083246640789</v>
       </c>
       <c r="C77">
-        <v>0.04564057327963605</v>
+        <v>-0.01026611856597538</v>
       </c>
       <c r="D77">
-        <v>0.03734544548274466</v>
+        <v>-0.1120227871201358</v>
       </c>
       <c r="E77">
-        <v>-0.0453459401352909</v>
+        <v>0.03770730501408233</v>
       </c>
       <c r="F77">
-        <v>-0.04738353160176802</v>
+        <v>0.03442890066497009</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1292775692979614</v>
+        <v>-0.1054531804334428</v>
       </c>
       <c r="C78">
-        <v>0.09394568007981774</v>
+        <v>-0.04181118656380223</v>
       </c>
       <c r="D78">
-        <v>-0.2285101312580141</v>
+        <v>-0.116551080812985</v>
       </c>
       <c r="E78">
-        <v>0.09594371674020104</v>
+        <v>0.08320201671689632</v>
       </c>
       <c r="F78">
-        <v>-0.655238462839159</v>
+        <v>0.07689874522028319</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1301623576619912</v>
+        <v>-0.1644688003387874</v>
       </c>
       <c r="C79">
-        <v>0.0520251027946155</v>
+        <v>-0.02036375408524293</v>
       </c>
       <c r="D79">
-        <v>-0.008636747648015841</v>
+        <v>-0.01884394715607597</v>
       </c>
       <c r="E79">
-        <v>-0.05006272187138143</v>
+        <v>0.04948916034579092</v>
       </c>
       <c r="F79">
-        <v>0.04184258008670674</v>
+        <v>0.005187785820886418</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07870689310087603</v>
+        <v>-0.08047403869080129</v>
       </c>
       <c r="C80">
-        <v>0.08128124174183965</v>
+        <v>0.0003643159385499797</v>
       </c>
       <c r="D80">
-        <v>0.06733107398169107</v>
+        <v>-0.05872437763592599</v>
       </c>
       <c r="E80">
-        <v>-0.01223066135528168</v>
+        <v>0.03526425002218322</v>
       </c>
       <c r="F80">
-        <v>0.06085139164585723</v>
+        <v>-0.01408297643150567</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1391006099865116</v>
+        <v>-0.1231884246935784</v>
       </c>
       <c r="C81">
-        <v>0.08532383184012372</v>
+        <v>-0.0303737885996975</v>
       </c>
       <c r="D81">
-        <v>0.00785417531534653</v>
+        <v>-0.01851582942792584</v>
       </c>
       <c r="E81">
-        <v>-0.04269367833177836</v>
+        <v>0.05962402840209752</v>
       </c>
       <c r="F81">
-        <v>0.01644549735358887</v>
+        <v>0.00429385313725917</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1506789266318777</v>
+        <v>-0.16381487954757</v>
       </c>
       <c r="C82">
-        <v>0.06987630605020875</v>
+        <v>-0.02135707671088346</v>
       </c>
       <c r="D82">
-        <v>0.01310335279237197</v>
+        <v>-0.01538286327865708</v>
       </c>
       <c r="E82">
-        <v>-0.04528906479925097</v>
+        <v>0.03413373466354834</v>
       </c>
       <c r="F82">
-        <v>0.08177381419044669</v>
+        <v>0.06114876065103577</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08411949723322375</v>
+        <v>-0.06357250731350846</v>
       </c>
       <c r="C83">
-        <v>0.1328073872429522</v>
+        <v>-0.003503949262730512</v>
       </c>
       <c r="D83">
-        <v>-0.01320531569074067</v>
+        <v>-0.04860734388285861</v>
       </c>
       <c r="E83">
-        <v>0.002741880294165353</v>
+        <v>0.00438767903721414</v>
       </c>
       <c r="F83">
-        <v>0.04834565892107024</v>
+        <v>-0.03977231972876567</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05516763455463886</v>
+        <v>-0.05942434565080681</v>
       </c>
       <c r="C84">
-        <v>-0.09298386864562759</v>
+        <v>-0.01128664479678486</v>
       </c>
       <c r="D84">
-        <v>0.05811082489283677</v>
+        <v>-0.06290364168489349</v>
       </c>
       <c r="E84">
-        <v>0.008429761865688815</v>
+        <v>0.0008443699387689094</v>
       </c>
       <c r="F84">
-        <v>-0.2144875301545693</v>
+        <v>0.01170870981039553</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1232280513397993</v>
+        <v>-0.1386116959307929</v>
       </c>
       <c r="C85">
-        <v>0.04721553184957967</v>
+        <v>-0.025831128731735</v>
       </c>
       <c r="D85">
-        <v>0.01073033973951021</v>
+        <v>-0.01503397429950837</v>
       </c>
       <c r="E85">
-        <v>-0.06486285738254062</v>
+        <v>0.04103812482316073</v>
       </c>
       <c r="F85">
-        <v>0.0572541320593998</v>
+        <v>0.0434994649968941</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08798535237786291</v>
+        <v>-0.09781069431402842</v>
       </c>
       <c r="C86">
-        <v>0.001487715393591073</v>
+        <v>0.007063994688767995</v>
       </c>
       <c r="D86">
-        <v>-0.009894830993773992</v>
+        <v>-0.02158375697744867</v>
       </c>
       <c r="E86">
-        <v>-0.1431898228964938</v>
+        <v>0.1529950092217123</v>
       </c>
       <c r="F86">
-        <v>-0.4978327279471131</v>
+        <v>-0.8644573262911303</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.115872184278712</v>
+        <v>-0.09860315462905204</v>
       </c>
       <c r="C87">
-        <v>0.1169437282008035</v>
+        <v>-0.02506018131768465</v>
       </c>
       <c r="D87">
-        <v>-0.02416793902504089</v>
+        <v>-0.07666554786027605</v>
       </c>
       <c r="E87">
-        <v>-0.07916174540745405</v>
+        <v>-0.05288172064279634</v>
       </c>
       <c r="F87">
-        <v>-0.06388380263085724</v>
+        <v>0.07859136608835532</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05245431586945506</v>
+        <v>-0.06136067900239325</v>
       </c>
       <c r="C88">
-        <v>0.05063496025171488</v>
+        <v>-0.003040987791613274</v>
       </c>
       <c r="D88">
-        <v>0.04543299249516136</v>
+        <v>-0.05369846649649975</v>
       </c>
       <c r="E88">
-        <v>-0.02468164543802348</v>
+        <v>0.02760507547964461</v>
       </c>
       <c r="F88">
-        <v>0.04973298808679658</v>
+        <v>0.008566338857558656</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1956229886771963</v>
+        <v>-0.134903776879839</v>
       </c>
       <c r="C89">
-        <v>-0.3650030049724674</v>
+        <v>-0.007919219326796524</v>
       </c>
       <c r="D89">
-        <v>-0.05207818297836513</v>
+        <v>0.2590595542375977</v>
       </c>
       <c r="E89">
-        <v>0.02242297033338209</v>
+        <v>-0.0909796838677038</v>
       </c>
       <c r="F89">
-        <v>0.02641908464101366</v>
+        <v>0.02434538430236398</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1515592326326813</v>
+        <v>-0.1451724479676244</v>
       </c>
       <c r="C90">
-        <v>-0.2558445013862081</v>
+        <v>-0.02520145846468379</v>
       </c>
       <c r="D90">
-        <v>0.03151821063586192</v>
+        <v>0.2675211198728189</v>
       </c>
       <c r="E90">
-        <v>0.02225193723379036</v>
+        <v>-0.1079420673588132</v>
       </c>
       <c r="F90">
-        <v>0.03255967085536432</v>
+        <v>0.02482359486168371</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07908683025177358</v>
+        <v>-0.1187501778991627</v>
       </c>
       <c r="C91">
-        <v>0.03959639592489923</v>
+        <v>-0.01673344198243247</v>
       </c>
       <c r="D91">
-        <v>0.005332338751430229</v>
+        <v>0.007295549847944237</v>
       </c>
       <c r="E91">
-        <v>-0.04597681155337474</v>
+        <v>0.05729860383900789</v>
       </c>
       <c r="F91">
-        <v>0.02353825030667433</v>
+        <v>-0.02035977562166869</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1699392104201349</v>
+        <v>-0.149202886028052</v>
       </c>
       <c r="C92">
-        <v>-0.2972147953106005</v>
+        <v>-0.01718203615469364</v>
       </c>
       <c r="D92">
-        <v>-0.02459228635500301</v>
+        <v>0.298417496339929</v>
       </c>
       <c r="E92">
-        <v>0.0283475225438587</v>
+        <v>-0.1032978161595405</v>
       </c>
       <c r="F92">
-        <v>0.01142306401774465</v>
+        <v>0.02162427032810466</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1532271579984242</v>
+        <v>-0.149961414335156</v>
       </c>
       <c r="C93">
-        <v>-0.3161164693590046</v>
+        <v>-0.02186349207100549</v>
       </c>
       <c r="D93">
-        <v>0.06088054237165043</v>
+        <v>0.2701892107391495</v>
       </c>
       <c r="E93">
-        <v>0.02850505021367831</v>
+        <v>-0.07375433898407285</v>
       </c>
       <c r="F93">
-        <v>0.02461663147517922</v>
+        <v>0.01753646270355157</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1331025790358939</v>
+        <v>-0.1331848692740634</v>
       </c>
       <c r="C94">
-        <v>0.05772787783650704</v>
+        <v>-0.02381063327987666</v>
       </c>
       <c r="D94">
-        <v>-0.018168260776098</v>
+        <v>-0.04588110484450897</v>
       </c>
       <c r="E94">
-        <v>-0.02990962675138845</v>
+        <v>0.06101792915554977</v>
       </c>
       <c r="F94">
-        <v>0.03350011795716775</v>
+        <v>0.03139913470459819</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1212022705096489</v>
+        <v>-0.1260520384521314</v>
       </c>
       <c r="C95">
-        <v>0.05385011434130499</v>
+        <v>-0.005460588843517919</v>
       </c>
       <c r="D95">
-        <v>-0.01246287375245272</v>
+        <v>-0.09118180797296435</v>
       </c>
       <c r="E95">
-        <v>-0.03822161911353417</v>
+        <v>0.04428683850239557</v>
       </c>
       <c r="F95">
-        <v>-0.1162519287465214</v>
+        <v>-0.01175391108168796</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.009089577809493042</v>
+        <v>-0.0985894061634546</v>
       </c>
       <c r="C96">
-        <v>0.004237151794998951</v>
+        <v>0.9889361744819463</v>
       </c>
       <c r="D96">
-        <v>-0.004038041020787927</v>
+        <v>0.02758479919159691</v>
       </c>
       <c r="E96">
-        <v>1.765069666234392e-05</v>
+        <v>0.05790567860217283</v>
       </c>
       <c r="F96">
-        <v>-0.02796569045889892</v>
+        <v>0.0480049089674043</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1740218247392988</v>
+        <v>-0.1882255475715494</v>
       </c>
       <c r="C97">
-        <v>0.1689300786962942</v>
+        <v>0.01106990897538122</v>
       </c>
       <c r="D97">
-        <v>-0.1486372515607618</v>
+        <v>0.007468196773147956</v>
       </c>
       <c r="E97">
-        <v>0.8904911987225745</v>
+        <v>0.01860079766124624</v>
       </c>
       <c r="F97">
-        <v>0.0106371736495534</v>
+        <v>-0.1756213959138925</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2422792399256007</v>
+        <v>-0.2047633885875735</v>
       </c>
       <c r="C98">
-        <v>0.04946524652318116</v>
+        <v>-0.007020411838371813</v>
       </c>
       <c r="D98">
-        <v>-0.06970026823617848</v>
+        <v>-0.01153462462176388</v>
       </c>
       <c r="E98">
-        <v>-0.02597511256501276</v>
+        <v>-0.09714543221136744</v>
       </c>
       <c r="F98">
-        <v>0.07465276061558046</v>
+        <v>-0.1174162293667917</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05205439266518829</v>
+        <v>-0.05659902256726689</v>
       </c>
       <c r="C99">
-        <v>0.005778976564037521</v>
+        <v>0.003761925047291369</v>
       </c>
       <c r="D99">
-        <v>-0.006536378041768106</v>
+        <v>-0.03589599091050179</v>
       </c>
       <c r="E99">
-        <v>-0.007662833346897976</v>
+        <v>0.02683597530593674</v>
       </c>
       <c r="F99">
-        <v>0.002620461236081458</v>
+        <v>0.005099428247035334</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.02940745784351684</v>
+        <v>-0.1245653369260869</v>
       </c>
       <c r="C100">
-        <v>0.06252968218427368</v>
+        <v>0.04944813444913839</v>
       </c>
       <c r="D100">
-        <v>0.03647278260998313</v>
+        <v>-0.3435455492635655</v>
       </c>
       <c r="E100">
-        <v>0.1008416867302744</v>
+        <v>-0.8960805630496953</v>
       </c>
       <c r="F100">
-        <v>0.2201544180554031</v>
+        <v>-0.07594209334367089</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03522776024184852</v>
+        <v>-0.02705647743448747</v>
       </c>
       <c r="C101">
-        <v>0.03084508815722933</v>
+        <v>-0.008859561183802602</v>
       </c>
       <c r="D101">
-        <v>0.0219913581875448</v>
+        <v>-0.03138956708174289</v>
       </c>
       <c r="E101">
-        <v>-0.03205771955344782</v>
+        <v>0.01181400741041772</v>
       </c>
       <c r="F101">
-        <v>0.02145064742962579</v>
+        <v>-0.01364748877672627</v>
       </c>
     </row>
     <row r="102" spans="1:6">
